--- a/xlsx/馬球_intext.xlsx
+++ b/xlsx/馬球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>藏語</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬球</t>
+    <t>体育运动_体育运动_国际单项体育联合会总会_馬球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
